--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,16 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ptgs2</t>
   </si>
   <si>
     <t>Cav1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>42.8787565028443</v>
+        <v>0.08446149999999999</v>
       </c>
       <c r="H2">
-        <v>42.8787565028443</v>
+        <v>0.168923</v>
       </c>
       <c r="I2">
-        <v>0.3901186037493943</v>
+        <v>0.0006992340632328751</v>
       </c>
       <c r="J2">
-        <v>0.3901186037493943</v>
+        <v>0.0004668674295465215</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N2">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O2">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P2">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q2">
-        <v>36840.27916870853</v>
+        <v>74.74179030417625</v>
       </c>
       <c r="R2">
-        <v>36840.27916870853</v>
+        <v>298.967161216705</v>
       </c>
       <c r="S2">
-        <v>0.1941390085959225</v>
+        <v>0.0003497101789698566</v>
       </c>
       <c r="T2">
-        <v>0.1941390085959225</v>
+        <v>0.0001924123923221705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>42.8787565028443</v>
+        <v>0.08446149999999999</v>
       </c>
       <c r="H3">
-        <v>42.8787565028443</v>
+        <v>0.168923</v>
       </c>
       <c r="I3">
-        <v>0.3901186037493943</v>
+        <v>0.0006992340632328751</v>
       </c>
       <c r="J3">
-        <v>0.3901186037493943</v>
+        <v>0.0004668674295465215</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N3">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O3">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P3">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q3">
-        <v>7228.278527134964</v>
+        <v>14.90957780241783</v>
       </c>
       <c r="R3">
-        <v>7228.278527134964</v>
+        <v>89.457466814507</v>
       </c>
       <c r="S3">
-        <v>0.03809121045708867</v>
+        <v>6.976058641931144E-05</v>
       </c>
       <c r="T3">
-        <v>0.03809121045708867</v>
+        <v>5.757396608647566E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>42.8787565028443</v>
+        <v>0.08446149999999999</v>
       </c>
       <c r="H4">
-        <v>42.8787565028443</v>
+        <v>0.168923</v>
       </c>
       <c r="I4">
-        <v>0.3901186037493943</v>
+        <v>0.0006992340632328751</v>
       </c>
       <c r="J4">
-        <v>0.3901186037493943</v>
+        <v>0.0004668674295465215</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N4">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O4">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P4">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q4">
-        <v>91.75857260509869</v>
+        <v>0.1846043473206667</v>
       </c>
       <c r="R4">
-        <v>91.75857260509869</v>
+        <v>1.107626083924</v>
       </c>
       <c r="S4">
-        <v>0.0004835446070903189</v>
+        <v>8.637472968923074E-07</v>
       </c>
       <c r="T4">
-        <v>0.0004835446070903189</v>
+        <v>7.128575049477568E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>42.8787565028443</v>
+        <v>0.08446149999999999</v>
       </c>
       <c r="H5">
-        <v>42.8787565028443</v>
+        <v>0.168923</v>
       </c>
       <c r="I5">
-        <v>0.3901186037493943</v>
+        <v>0.0006992340632328751</v>
       </c>
       <c r="J5">
-        <v>0.3901186037493943</v>
+        <v>0.0004668674295465215</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N5">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O5">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P5">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q5">
-        <v>46.87863206573957</v>
+        <v>0.1030748719855</v>
       </c>
       <c r="R5">
-        <v>46.87863206573957</v>
+        <v>0.6184492319129999</v>
       </c>
       <c r="S5">
-        <v>0.0002470386044551448</v>
+        <v>4.822781442971422E-07</v>
       </c>
       <c r="T5">
-        <v>0.0002470386044551448</v>
+        <v>3.980279832671473E-07</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>42.8787565028443</v>
+        <v>0.08446149999999999</v>
       </c>
       <c r="H6">
-        <v>42.8787565028443</v>
+        <v>0.168923</v>
       </c>
       <c r="I6">
-        <v>0.3901186037493943</v>
+        <v>0.0006992340632328751</v>
       </c>
       <c r="J6">
-        <v>0.3901186037493943</v>
+        <v>0.0004668674295465215</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N6">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O6">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P6">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q6">
-        <v>24298.38878745182</v>
+        <v>48.620620253914</v>
       </c>
       <c r="R6">
-        <v>24298.38878745182</v>
+        <v>291.723721523484</v>
       </c>
       <c r="S6">
-        <v>0.128046399650547</v>
+        <v>0.0002274915511312235</v>
       </c>
       <c r="T6">
-        <v>0.128046399650547</v>
+        <v>0.0001877505841344687</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>42.8787565028443</v>
+        <v>0.08446149999999999</v>
       </c>
       <c r="H7">
-        <v>42.8787565028443</v>
+        <v>0.168923</v>
       </c>
       <c r="I7">
-        <v>0.3901186037493943</v>
+        <v>0.0006992340632328751</v>
       </c>
       <c r="J7">
-        <v>0.3901186037493943</v>
+        <v>0.0004668674295465215</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N7">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O7">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P7">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q7">
-        <v>5524.248724273378</v>
+        <v>10.88409720174625</v>
       </c>
       <c r="R7">
-        <v>5524.248724273378</v>
+        <v>43.53638880698499</v>
       </c>
       <c r="S7">
-        <v>0.0291114018342907</v>
+        <v>5.092572127129415E-05</v>
       </c>
       <c r="T7">
-        <v>0.0291114018342907</v>
+        <v>2.801960151519171E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.2537881227437</v>
+        <v>46.237221</v>
       </c>
       <c r="H8">
-        <v>45.2537881227437</v>
+        <v>138.711663</v>
       </c>
       <c r="I8">
-        <v>0.4117270666569964</v>
+        <v>0.3827855284647611</v>
       </c>
       <c r="J8">
-        <v>0.4117270666569964</v>
+        <v>0.3833696865017395</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N8">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O8">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P8">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q8">
-        <v>38880.84272623148</v>
+        <v>40916.30714858077</v>
       </c>
       <c r="R8">
-        <v>38880.84272623148</v>
+        <v>245497.8428914846</v>
       </c>
       <c r="S8">
-        <v>0.2048922654922751</v>
+        <v>0.1914437563976346</v>
       </c>
       <c r="T8">
-        <v>0.2048922654922751</v>
+        <v>0.158000052809959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.2537881227437</v>
+        <v>46.237221</v>
       </c>
       <c r="H9">
-        <v>45.2537881227437</v>
+        <v>138.711663</v>
       </c>
       <c r="I9">
-        <v>0.4117270666569964</v>
+        <v>0.3827855284647611</v>
       </c>
       <c r="J9">
-        <v>0.4117270666569964</v>
+        <v>0.3833696865017395</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N9">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O9">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P9">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q9">
-        <v>7628.649047633772</v>
+        <v>8162.031740699463</v>
       </c>
       <c r="R9">
-        <v>7628.649047633772</v>
+        <v>73458.28566629517</v>
       </c>
       <c r="S9">
-        <v>0.04020106243635087</v>
+        <v>0.03818941945572008</v>
       </c>
       <c r="T9">
-        <v>0.04020106243635087</v>
+        <v>0.04727704682820362</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.2537881227437</v>
+        <v>46.237221</v>
       </c>
       <c r="H10">
-        <v>45.2537881227437</v>
+        <v>138.711663</v>
       </c>
       <c r="I10">
-        <v>0.4117270666569964</v>
+        <v>0.3827855284647611</v>
       </c>
       <c r="J10">
-        <v>0.4117270666569964</v>
+        <v>0.3833696865017395</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N10">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O10">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P10">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q10">
-        <v>96.84103135875887</v>
+        <v>101.058967750116</v>
       </c>
       <c r="R10">
-        <v>96.84103135875887</v>
+        <v>909.530709751044</v>
       </c>
       <c r="S10">
-        <v>0.0005103278868571927</v>
+        <v>0.0004728459079528807</v>
       </c>
       <c r="T10">
-        <v>0.0005103278868571927</v>
+        <v>0.0005853652255366887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.2537881227437</v>
+        <v>46.237221</v>
       </c>
       <c r="H11">
-        <v>45.2537881227437</v>
+        <v>138.711663</v>
       </c>
       <c r="I11">
-        <v>0.4117270666569964</v>
+        <v>0.3827855284647611</v>
       </c>
       <c r="J11">
-        <v>0.4117270666569964</v>
+        <v>0.3833696865017395</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N11">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O11">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P11">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q11">
-        <v>49.47521467527434</v>
+        <v>56.426841052317</v>
       </c>
       <c r="R11">
-        <v>49.47521467527434</v>
+        <v>507.841569470853</v>
       </c>
       <c r="S11">
-        <v>0.0002607219419576648</v>
+        <v>0.0002640161628829331</v>
       </c>
       <c r="T11">
-        <v>0.0002607219419576648</v>
+        <v>0.0003268419544971507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.2537881227437</v>
+        <v>46.237221</v>
       </c>
       <c r="H12">
-        <v>45.2537881227437</v>
+        <v>138.711663</v>
       </c>
       <c r="I12">
-        <v>0.4117270666569964</v>
+        <v>0.3827855284647611</v>
       </c>
       <c r="J12">
-        <v>0.4117270666569964</v>
+        <v>0.3833696865017395</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N12">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O12">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P12">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q12">
-        <v>25644.2636772467</v>
+        <v>26616.65212951815</v>
       </c>
       <c r="R12">
-        <v>25644.2636772467</v>
+        <v>239549.8691656634</v>
       </c>
       <c r="S12">
-        <v>0.1351388219311267</v>
+        <v>0.1245369443508247</v>
       </c>
       <c r="T12">
-        <v>0.1351388219311267</v>
+        <v>0.1541719940713435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.2537881227437</v>
+        <v>46.237221</v>
       </c>
       <c r="H13">
-        <v>45.2537881227437</v>
+        <v>138.711663</v>
       </c>
       <c r="I13">
-        <v>0.4117270666569964</v>
+        <v>0.3827855284647611</v>
       </c>
       <c r="J13">
-        <v>0.4117270666569964</v>
+        <v>0.3833696865017395</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N13">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O13">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P13">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q13">
-        <v>5830.233936215517</v>
+        <v>5958.340873683547</v>
       </c>
       <c r="R13">
-        <v>5830.233936215517</v>
+        <v>35750.04524210128</v>
       </c>
       <c r="S13">
-        <v>0.03072386696842889</v>
+        <v>0.02787854618974596</v>
       </c>
       <c r="T13">
-        <v>0.03072386696842889</v>
+        <v>0.02300838561219942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.2746862364439</v>
+        <v>51.88311633333334</v>
       </c>
       <c r="H14">
-        <v>21.2746862364439</v>
+        <v>155.649349</v>
       </c>
       <c r="I14">
-        <v>0.1935609044356826</v>
+        <v>0.4295263788464641</v>
       </c>
       <c r="J14">
-        <v>0.1935609044356826</v>
+        <v>0.4301818667571583</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N14">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O14">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P14">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q14">
-        <v>18278.6406160189</v>
+        <v>45912.48085001075</v>
       </c>
       <c r="R14">
-        <v>18278.6406160189</v>
+        <v>275474.8851000645</v>
       </c>
       <c r="S14">
-        <v>0.09632384031142696</v>
+        <v>0.2148204080965161</v>
       </c>
       <c r="T14">
-        <v>0.09632384031142696</v>
+        <v>0.1772929891398948</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.2746862364439</v>
+        <v>51.88311633333334</v>
       </c>
       <c r="H15">
-        <v>21.2746862364439</v>
+        <v>155.649349</v>
       </c>
       <c r="I15">
-        <v>0.1935609044356826</v>
+        <v>0.4295263788464641</v>
       </c>
       <c r="J15">
-        <v>0.1935609044356826</v>
+        <v>0.4301818667571583</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N15">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O15">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P15">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q15">
-        <v>3586.376337294681</v>
+        <v>9158.674184139862</v>
       </c>
       <c r="R15">
-        <v>3586.376337294681</v>
+        <v>82428.06765725877</v>
       </c>
       <c r="S15">
-        <v>0.0188993015874226</v>
+        <v>0.04285262066947295</v>
       </c>
       <c r="T15">
-        <v>0.0188993015874226</v>
+        <v>0.05304991233110953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.2746862364439</v>
+        <v>51.88311633333334</v>
       </c>
       <c r="H16">
-        <v>21.2746862364439</v>
+        <v>155.649349</v>
       </c>
       <c r="I16">
-        <v>0.1935609044356826</v>
+        <v>0.4295263788464641</v>
       </c>
       <c r="J16">
-        <v>0.1935609044356826</v>
+        <v>0.4301818667571583</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N16">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O16">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P16">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q16">
-        <v>45.52685294285386</v>
+        <v>113.3989904000903</v>
       </c>
       <c r="R16">
-        <v>45.52685294285386</v>
+        <v>1020.590913600812</v>
       </c>
       <c r="S16">
-        <v>0.0002399150683506573</v>
+        <v>0.0005305837747052302</v>
       </c>
       <c r="T16">
-        <v>0.0002399150683506573</v>
+        <v>0.0006568425056083698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.2746862364439</v>
+        <v>51.88311633333334</v>
       </c>
       <c r="H17">
-        <v>21.2746862364439</v>
+        <v>155.649349</v>
       </c>
       <c r="I17">
-        <v>0.1935609044356826</v>
+        <v>0.4295263788464641</v>
       </c>
       <c r="J17">
-        <v>0.1935609044356826</v>
+        <v>0.4301818667571583</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N17">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O17">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P17">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q17">
-        <v>23.25926098920688</v>
+        <v>63.31696186152435</v>
       </c>
       <c r="R17">
-        <v>23.25926098920688</v>
+        <v>569.8526567537191</v>
       </c>
       <c r="S17">
-        <v>0.0001225704574180819</v>
+        <v>0.000296254424389725</v>
       </c>
       <c r="T17">
-        <v>0.0001225704574180819</v>
+        <v>0.0003667516944366036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.2746862364439</v>
+        <v>51.88311633333334</v>
       </c>
       <c r="H18">
-        <v>21.2746862364439</v>
+        <v>155.649349</v>
       </c>
       <c r="I18">
-        <v>0.1935609044356826</v>
+        <v>0.4295263788464641</v>
       </c>
       <c r="J18">
-        <v>0.1935609044356826</v>
+        <v>0.4301818667571583</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N18">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O18">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P18">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q18">
-        <v>12055.86727940381</v>
+        <v>29866.73569416412</v>
       </c>
       <c r="R18">
-        <v>12055.86727940381</v>
+        <v>268800.6212474771</v>
       </c>
       <c r="S18">
-        <v>0.06353138939770758</v>
+        <v>0.1397437958382425</v>
       </c>
       <c r="T18">
-        <v>0.06353138939770758</v>
+        <v>0.1729974970542779</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.2746862364439</v>
+        <v>51.88311633333334</v>
       </c>
       <c r="H19">
-        <v>21.2746862364439</v>
+        <v>155.649349</v>
       </c>
       <c r="I19">
-        <v>0.1935609044356826</v>
+        <v>0.4295263788464641</v>
       </c>
       <c r="J19">
-        <v>0.1935609044356826</v>
+        <v>0.4301818667571583</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>128.834163460569</v>
+        <v>128.8645975</v>
       </c>
       <c r="N19">
-        <v>128.834163460569</v>
+        <v>257.729195</v>
       </c>
       <c r="O19">
-        <v>0.07462192665128931</v>
+        <v>0.07283072142658716</v>
       </c>
       <c r="P19">
-        <v>0.07462192665128931</v>
+        <v>0.06001618391415259</v>
       </c>
       <c r="Q19">
-        <v>2740.906404158331</v>
+        <v>6685.896903340677</v>
       </c>
       <c r="R19">
-        <v>2740.906404158331</v>
+        <v>40115.38142004406</v>
       </c>
       <c r="S19">
-        <v>0.01444388761335673</v>
+        <v>0.03128271604313756</v>
       </c>
       <c r="T19">
-        <v>0.01444388761335673</v>
+        <v>0.02581787403183109</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.504873023146827</v>
+        <v>21.48863166666667</v>
       </c>
       <c r="H20">
-        <v>0.504873023146827</v>
+        <v>64.465895</v>
       </c>
       <c r="I20">
-        <v>0.004593425157926647</v>
+        <v>0.1778986074554438</v>
       </c>
       <c r="J20">
-        <v>0.004593425157926647</v>
+        <v>0.1781700934275733</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>859.173217074632</v>
+        <v>884.9214175000001</v>
       </c>
       <c r="N20">
-        <v>859.173217074632</v>
+        <v>1769.842835</v>
       </c>
       <c r="O20">
-        <v>0.4976409910475177</v>
+        <v>0.5001332134092387</v>
       </c>
       <c r="P20">
-        <v>0.4976409910475177</v>
+        <v>0.4121349662559774</v>
       </c>
       <c r="Q20">
-        <v>433.7733795112545</v>
+        <v>19015.75039460206</v>
       </c>
       <c r="R20">
-        <v>433.7733795112545</v>
+        <v>114094.5023676123</v>
       </c>
       <c r="S20">
-        <v>0.002285876647893217</v>
+        <v>0.08897300220771982</v>
       </c>
       <c r="T20">
-        <v>0.002285876647893217</v>
+        <v>0.07343012544259725</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.504873023146827</v>
+        <v>21.48863166666667</v>
       </c>
       <c r="H21">
-        <v>0.504873023146827</v>
+        <v>64.465895</v>
       </c>
       <c r="I21">
-        <v>0.004593425157926647</v>
+        <v>0.1778986074554438</v>
       </c>
       <c r="J21">
-        <v>0.004593425157926647</v>
+        <v>0.1781700934275733</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>168.574816917918</v>
+        <v>176.5251363333333</v>
       </c>
       <c r="N21">
-        <v>168.574816917918</v>
+        <v>529.575409</v>
       </c>
       <c r="O21">
-        <v>0.09764007686636199</v>
+        <v>0.09976714534869299</v>
       </c>
       <c r="P21">
-        <v>0.09764007686636199</v>
+        <v>0.123319731561481</v>
       </c>
       <c r="Q21">
-        <v>85.10887744377214</v>
+        <v>3793.283634575117</v>
       </c>
       <c r="R21">
-        <v>85.10887744377214</v>
+        <v>34139.55271117606</v>
       </c>
       <c r="S21">
-        <v>0.0004485023854998387</v>
+        <v>0.01774843622733734</v>
       </c>
       <c r="T21">
-        <v>0.0004485023854998387</v>
+        <v>0.02197188809377232</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.504873023146827</v>
+        <v>21.48863166666667</v>
       </c>
       <c r="H22">
-        <v>0.504873023146827</v>
+        <v>64.465895</v>
       </c>
       <c r="I22">
-        <v>0.004593425157926647</v>
+        <v>0.1778986074554438</v>
       </c>
       <c r="J22">
-        <v>0.004593425157926647</v>
+        <v>0.1781700934275733</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.13995414253704</v>
+        <v>2.185662666666667</v>
       </c>
       <c r="N22">
-        <v>2.13995414253704</v>
+        <v>6.556988</v>
       </c>
       <c r="O22">
-        <v>0.001239481025624043</v>
+        <v>0.001235276343516237</v>
       </c>
       <c r="P22">
-        <v>0.001239481025624043</v>
+        <v>0.001526894916700809</v>
       </c>
       <c r="Q22">
-        <v>1.080405117338251</v>
+        <v>46.96689999158445</v>
       </c>
       <c r="R22">
-        <v>1.080405117338251</v>
+        <v>422.70209992426</v>
       </c>
       <c r="S22">
-        <v>5.693463325874203E-06</v>
+        <v>0.000219753941334191</v>
       </c>
       <c r="T22">
-        <v>5.693463325874203E-06</v>
+        <v>0.0002720470099626698</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.504873023146827</v>
+        <v>21.48863166666667</v>
       </c>
       <c r="H23">
-        <v>0.504873023146827</v>
+        <v>64.465895</v>
       </c>
       <c r="I23">
-        <v>0.004593425157926647</v>
+        <v>0.1778986074554438</v>
       </c>
       <c r="J23">
-        <v>0.004593425157926647</v>
+        <v>0.1781700934275733</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.09328338527331</v>
+        <v>1.220377</v>
       </c>
       <c r="N23">
-        <v>1.09328338527331</v>
+        <v>3.661131</v>
       </c>
       <c r="O23">
-        <v>0.0006332397431982976</v>
+        <v>0.00068972346980259</v>
       </c>
       <c r="P23">
-        <v>0.0006332397431982976</v>
+        <v>0.0008525503345859028</v>
       </c>
       <c r="Q23">
-        <v>0.5519692878791332</v>
+        <v>26.22423184747167</v>
       </c>
       <c r="R23">
-        <v>0.5519692878791332</v>
+        <v>236.018086627245</v>
       </c>
       <c r="S23">
-        <v>2.908739367406069E-06</v>
+        <v>0.0001227008448072176</v>
       </c>
       <c r="T23">
-        <v>2.908739367406069E-06</v>
+        <v>0.0001518989727648791</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.504873023146827</v>
+        <v>21.48863166666667</v>
       </c>
       <c r="H24">
-        <v>0.504873023146827</v>
+        <v>64.465895</v>
       </c>
       <c r="I24">
-        <v>0.004593425157926647</v>
+        <v>0.1778986074554438</v>
       </c>
       <c r="J24">
-        <v>0.004593425157926647</v>
+        <v>0.1781700934275733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>566.676619594601</v>
+        <v>575.654236</v>
       </c>
       <c r="N24">
-        <v>566.676619594601</v>
+        <v>1726.962708</v>
       </c>
       <c r="O24">
-        <v>0.3282242846660086</v>
+        <v>0.3253439200021624</v>
       </c>
       <c r="P24">
-        <v>0.3282242846660086</v>
+        <v>0.4021496730171023</v>
       </c>
       <c r="Q24">
-        <v>286.0997380813507</v>
+        <v>12370.02184476041</v>
       </c>
       <c r="R24">
-        <v>286.0997380813507</v>
+        <v>111330.1966028437</v>
       </c>
       <c r="S24">
-        <v>0.001507673686627321</v>
+        <v>0.05787823031247998</v>
       </c>
       <c r="T24">
-        <v>0.001507673686627321</v>
+        <v>0.07165104481332515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>21.48863166666667</v>
+      </c>
+      <c r="H25">
+        <v>64.465895</v>
+      </c>
+      <c r="I25">
+        <v>0.1778986074554438</v>
+      </c>
+      <c r="J25">
+        <v>0.1781700934275733</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>128.8645975</v>
+      </c>
+      <c r="N25">
+        <v>257.729195</v>
+      </c>
+      <c r="O25">
+        <v>0.07283072142658716</v>
+      </c>
+      <c r="P25">
+        <v>0.06001618391415259</v>
+      </c>
+      <c r="Q25">
+        <v>2769.123870550754</v>
+      </c>
+      <c r="R25">
+        <v>16614.74322330453</v>
+      </c>
+      <c r="S25">
+        <v>0.01295648392176521</v>
+      </c>
+      <c r="T25">
+        <v>0.01069308909515099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6303196666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.890959</v>
+      </c>
+      <c r="I26">
+        <v>0.005218247149990526</v>
+      </c>
+      <c r="J26">
+        <v>0.005226210567583224</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>884.9214175000001</v>
+      </c>
+      <c r="N26">
+        <v>1769.842835</v>
+      </c>
+      <c r="O26">
+        <v>0.5001332134092387</v>
+      </c>
+      <c r="P26">
+        <v>0.4121349662559774</v>
+      </c>
+      <c r="Q26">
+        <v>557.7833729047943</v>
+      </c>
+      <c r="R26">
+        <v>3346.700237428765</v>
+      </c>
+      <c r="S26">
+        <v>0.002609818715488363</v>
+      </c>
+      <c r="T26">
+        <v>0.002153904115917545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.6303196666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.890959</v>
+      </c>
+      <c r="I27">
+        <v>0.005218247149990526</v>
+      </c>
+      <c r="J27">
+        <v>0.005226210567583224</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>176.5251363333333</v>
+      </c>
+      <c r="N27">
+        <v>529.575409</v>
+      </c>
+      <c r="O27">
+        <v>0.09976714534869299</v>
+      </c>
+      <c r="P27">
+        <v>0.123319731561481</v>
+      </c>
+      <c r="Q27">
+        <v>111.2672650919146</v>
+      </c>
+      <c r="R27">
+        <v>1001.405385827231</v>
+      </c>
+      <c r="S27">
+        <v>0.0005206096218785078</v>
+      </c>
+      <c r="T27">
+        <v>0.0006444948842781382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.6303196666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.890959</v>
+      </c>
+      <c r="I28">
+        <v>0.005218247149990526</v>
+      </c>
+      <c r="J28">
+        <v>0.005226210567583224</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.185662666666667</v>
+      </c>
+      <c r="N28">
+        <v>6.556988</v>
+      </c>
+      <c r="O28">
+        <v>0.001235276343516237</v>
+      </c>
+      <c r="P28">
+        <v>0.001526894916700809</v>
+      </c>
+      <c r="Q28">
+        <v>1.377666163499111</v>
+      </c>
+      <c r="R28">
+        <v>12.398995471492</v>
+      </c>
+      <c r="S28">
+        <v>6.445977259004324E-06</v>
+      </c>
+      <c r="T28">
+        <v>7.979874349250875E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.6303196666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.890959</v>
+      </c>
+      <c r="I29">
+        <v>0.005218247149990526</v>
+      </c>
+      <c r="J29">
+        <v>0.005226210567583224</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.220377</v>
+      </c>
+      <c r="N29">
+        <v>3.661131</v>
+      </c>
+      <c r="O29">
+        <v>0.00068972346980259</v>
+      </c>
+      <c r="P29">
+        <v>0.0008525503345859028</v>
+      </c>
+      <c r="Q29">
+        <v>0.7692276238476667</v>
+      </c>
+      <c r="R29">
+        <v>6.923048614629001</v>
+      </c>
+      <c r="S29">
+        <v>3.599147530578942E-06</v>
+      </c>
+      <c r="T29">
+        <v>4.455607568009458E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.6303196666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.890959</v>
+      </c>
+      <c r="I30">
+        <v>0.005218247149990526</v>
+      </c>
+      <c r="J30">
+        <v>0.005226210567583224</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>575.654236</v>
+      </c>
+      <c r="N30">
+        <v>1726.962708</v>
+      </c>
+      <c r="O30">
+        <v>0.3253439200021624</v>
+      </c>
+      <c r="P30">
+        <v>0.4021496730171023</v>
+      </c>
+      <c r="Q30">
+        <v>362.8461861507747</v>
+      </c>
+      <c r="R30">
+        <v>3265.615675356972</v>
+      </c>
+      <c r="S30">
+        <v>0.001697724983318029</v>
+      </c>
+      <c r="T30">
+        <v>0.002101718870872118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.504873023146827</v>
-      </c>
-      <c r="H25">
-        <v>0.504873023146827</v>
-      </c>
-      <c r="I25">
-        <v>0.004593425157926647</v>
-      </c>
-      <c r="J25">
-        <v>0.004593425157926647</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>128.834163460569</v>
-      </c>
-      <c r="N25">
-        <v>128.834163460569</v>
-      </c>
-      <c r="O25">
-        <v>0.07462192665128931</v>
-      </c>
-      <c r="P25">
-        <v>0.07462192665128931</v>
-      </c>
-      <c r="Q25">
-        <v>65.04489359092995</v>
-      </c>
-      <c r="R25">
-        <v>65.04489359092995</v>
-      </c>
-      <c r="S25">
-        <v>0.0003427702352129892</v>
-      </c>
-      <c r="T25">
-        <v>0.0003427702352129892</v>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.6303196666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.890959</v>
+      </c>
+      <c r="I31">
+        <v>0.005218247149990526</v>
+      </c>
+      <c r="J31">
+        <v>0.005226210567583224</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>128.8645975</v>
+      </c>
+      <c r="N31">
+        <v>257.729195</v>
+      </c>
+      <c r="O31">
+        <v>0.07283072142658716</v>
+      </c>
+      <c r="P31">
+        <v>0.06001618391415259</v>
+      </c>
+      <c r="Q31">
+        <v>81.22589014133418</v>
+      </c>
+      <c r="R31">
+        <v>487.355340848005</v>
+      </c>
+      <c r="S31">
+        <v>0.0003800487045160424</v>
+      </c>
+      <c r="T31">
+        <v>0.0003136572145981625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.467705</v>
+      </c>
+      <c r="H32">
+        <v>0.93541</v>
+      </c>
+      <c r="I32">
+        <v>0.003872004020107763</v>
+      </c>
+      <c r="J32">
+        <v>0.002585275316399257</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>884.9214175000001</v>
+      </c>
+      <c r="N32">
+        <v>1769.842835</v>
+      </c>
+      <c r="O32">
+        <v>0.5001332134092387</v>
+      </c>
+      <c r="P32">
+        <v>0.4121349662559774</v>
+      </c>
+      <c r="Q32">
+        <v>413.8821715718375</v>
+      </c>
+      <c r="R32">
+        <v>1655.52868628735</v>
+      </c>
+      <c r="S32">
+        <v>0.001936517812909986</v>
+      </c>
+      <c r="T32">
+        <v>0.001065482355286619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.467705</v>
+      </c>
+      <c r="H33">
+        <v>0.93541</v>
+      </c>
+      <c r="I33">
+        <v>0.003872004020107763</v>
+      </c>
+      <c r="J33">
+        <v>0.002585275316399257</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>176.5251363333333</v>
+      </c>
+      <c r="N33">
+        <v>529.575409</v>
+      </c>
+      <c r="O33">
+        <v>0.09976714534869299</v>
+      </c>
+      <c r="P33">
+        <v>0.123319731561481</v>
+      </c>
+      <c r="Q33">
+        <v>82.56168888878166</v>
+      </c>
+      <c r="R33">
+        <v>495.37013333269</v>
+      </c>
+      <c r="S33">
+        <v>0.0003862987878648148</v>
+      </c>
+      <c r="T33">
+        <v>0.0003188154580308791</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.467705</v>
+      </c>
+      <c r="H34">
+        <v>0.93541</v>
+      </c>
+      <c r="I34">
+        <v>0.003872004020107763</v>
+      </c>
+      <c r="J34">
+        <v>0.002585275316399257</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.185662666666667</v>
+      </c>
+      <c r="N34">
+        <v>6.556988</v>
+      </c>
+      <c r="O34">
+        <v>0.001235276343516237</v>
+      </c>
+      <c r="P34">
+        <v>0.001526894916700809</v>
+      </c>
+      <c r="Q34">
+        <v>1.022245357513333</v>
+      </c>
+      <c r="R34">
+        <v>6.13347214508</v>
+      </c>
+      <c r="S34">
+        <v>4.782994968038889E-06</v>
+      </c>
+      <c r="T34">
+        <v>3.947443738882102E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.467705</v>
+      </c>
+      <c r="H35">
+        <v>0.93541</v>
+      </c>
+      <c r="I35">
+        <v>0.003872004020107763</v>
+      </c>
+      <c r="J35">
+        <v>0.002585275316399257</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.220377</v>
+      </c>
+      <c r="N35">
+        <v>3.661131</v>
+      </c>
+      <c r="O35">
+        <v>0.00068972346980259</v>
+      </c>
+      <c r="P35">
+        <v>0.0008525503345859028</v>
+      </c>
+      <c r="Q35">
+        <v>0.570776424785</v>
+      </c>
+      <c r="R35">
+        <v>3.42465854871</v>
+      </c>
+      <c r="S35">
+        <v>2.670612047838304E-06</v>
+      </c>
+      <c r="T35">
+        <v>2.204077335992863E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.467705</v>
+      </c>
+      <c r="H36">
+        <v>0.93541</v>
+      </c>
+      <c r="I36">
+        <v>0.003872004020107763</v>
+      </c>
+      <c r="J36">
+        <v>0.002585275316399257</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>575.654236</v>
+      </c>
+      <c r="N36">
+        <v>1726.962708</v>
+      </c>
+      <c r="O36">
+        <v>0.3253439200021624</v>
+      </c>
+      <c r="P36">
+        <v>0.4021496730171023</v>
+      </c>
+      <c r="Q36">
+        <v>269.23636444838</v>
+      </c>
+      <c r="R36">
+        <v>1615.41818669028</v>
+      </c>
+      <c r="S36">
+        <v>0.001259732966165991</v>
+      </c>
+      <c r="T36">
+        <v>0.001039667623149147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.467705</v>
+      </c>
+      <c r="H37">
+        <v>0.93541</v>
+      </c>
+      <c r="I37">
+        <v>0.003872004020107763</v>
+      </c>
+      <c r="J37">
+        <v>0.002585275316399257</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>128.8645975</v>
+      </c>
+      <c r="N37">
+        <v>257.729195</v>
+      </c>
+      <c r="O37">
+        <v>0.07283072142658716</v>
+      </c>
+      <c r="P37">
+        <v>0.06001618391415259</v>
+      </c>
+      <c r="Q37">
+        <v>60.2706165737375</v>
+      </c>
+      <c r="R37">
+        <v>241.08246629495</v>
+      </c>
+      <c r="S37">
+        <v>0.0002820008461510941</v>
+      </c>
+      <c r="T37">
+        <v>0.0001551583588577368</v>
       </c>
     </row>
   </sheetData>
